--- a/data/trans_bre/P16B05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Clase-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,58</t>
+          <t>0,0; 51,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,16</t>
+          <t>0,0; 106,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,67</t>
+          <t>0,0; 64,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 0,0</t>
+          <t>-26,53; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,81</t>
+          <t>0,0; 55,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 231,01</t>
+          <t>0,0; 159,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 0,0</t>
+          <t>-26,53; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 107,31</t>
+          <t>0,0; 125,61</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 0,0</t>
+          <t>-42,06; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 0,0</t>
+          <t>-42,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 2,74</t>
+          <t>-23,36; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 11,47</t>
+          <t>-3,79; 12,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 11,49</t>
+          <t>-3,27; 12,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 2,61</t>
+          <t>-23,85; 3,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 12,88</t>
+          <t>-3,8; 14,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 12,99</t>
+          <t>-3,35; 14,34</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 29,1</t>
+          <t>-5,42; 27,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 16,81</t>
+          <t>-3,76; 18,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 40,96</t>
+          <t>-5,42; 39,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 21,07</t>
+          <t>-3,77; 23,2</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -1,46</t>
+          <t>-13,03; -1,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -1,46</t>
+          <t>-13,03; -1,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,55</t>
+          <t>-4,14; 10,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,02</t>
+          <t>-1,16; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,61</t>
+          <t>-0,82; 7,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 11,16</t>
+          <t>-4,29; 11,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,2</t>
+          <t>-1,16; 3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,39</t>
+          <t>-0,82; 8,82</t>
         </is>
       </c>
     </row>
